--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2050.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B647AF-CC91-4889-B518-76B834290AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8710AC7-92EF-4B77-8AB3-221F047DE7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,16 +175,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="2">
           <cell r="B2">
@@ -3299,7 +3299,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="14"/>
       <sheetData sheetId="15">
         <row r="2">
           <cell r="B2">
@@ -4338,11 +4338,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4614,7 +4614,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D1" s="1">
         <v>0.2</v>
@@ -4654,7 +4654,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="2">
         <v>0.95</v>
@@ -4674,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D3" s="2">
         <v>1.1000000000000001</v>
@@ -12327,99 +12327,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Pc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.346890190759737</v>
+        <v>6.612201171683763</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Pc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2346667263433178</v>
+        <v>6.5112000537089854</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Pc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0030840143740214</v>
+        <v>6.3027756129366193</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Pc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9106422378966705</v>
+        <v>6.2195780141070038</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Pc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8274983774636757</v>
+        <v>6.1447485397173089</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Pc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8858143868852872</v>
+        <v>6.197232948196759</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Pc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7849124869048083</v>
+        <v>6.1064212382143275</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Pc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9493293521419002</v>
+        <v>7.1543964169277103</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Pc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.4622352188307381</v>
+        <v>7.6160116969476643</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Pc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.436590907708938</v>
+        <v>7.5929318169380435</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Pc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2946373888969553</v>
+        <v>7.4651736500072605</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Pc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.3480594408749731</v>
+        <v>7.5132534967874767</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Pc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5775665193554076</v>
+        <v>7.7198098674198672</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Pc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5162770270758479</v>
+        <v>7.6646493243682645</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Pc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.9950243978276863</v>
+        <v>7.1955219580449175</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Pc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.1962611649374608</v>
+        <v>7.3766350484437151</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Pc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.2925891229714743</v>
+        <v>7.463330210674326</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Pc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.0541222037150995</v>
+        <v>7.2487099833435895</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Pc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7236916937262192</v>
+        <v>6.9513225243535972</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Pc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.687825912918429</v>
+        <v>6.919043321626587</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Pc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.6607748269112195</v>
+        <v>6.8946973442200976</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Pc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.5179950714888353</v>
+        <v>6.7661955643399523</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Pc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.0266115618525937</v>
+        <v>6.3239504056673344</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Pc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.8257164993864938</v>
+        <v>6.1431448494478449</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -12428,99 +12428,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Pc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6936635647265488</v>
+        <v>1.5242972082538939</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Pc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5883126479699468</v>
+        <v>1.4294813831729523</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Pc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5209336073750301</v>
+        <v>1.3688402466375271</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Pc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3930630476103663</v>
+        <v>1.2537567428493297</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Pc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.349217622809455</v>
+        <v>1.2142958605285095</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Pc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3923028656296796</v>
+        <v>1.2530725790667117</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Pc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4878740180389618</v>
+        <v>1.3390866162350656</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Pc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9595891716449398</v>
+        <v>1.7636302544804459</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Pc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1821593028309612</v>
+        <v>1.9639433725478652</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Pc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3498283846598302</v>
+        <v>2.1148455461938473</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Pc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1877928439952004</v>
+        <v>1.9690135595956804</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Pc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2653940718554439</v>
+        <v>2.0388546646698997</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Pc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2603669433009164</v>
+        <v>2.0343302489708246</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Pc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1720948088097476</v>
+        <v>1.9548853279287728</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Pc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8863648749463868</v>
+        <v>1.6977283874517481</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Pc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9306353680297803</v>
+        <v>1.7375718312268023</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Pc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0107586674228943</v>
+        <v>1.8096828006806049</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Pc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0072953765235582</v>
+        <v>1.8065658388712027</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Pc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1101526843450347</v>
+        <v>1.8991374159105312</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Pc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2559390100841568</v>
+        <v>2.0303451090757414</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Pc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3514886682961906</v>
+        <v>2.1163398014665717</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Pc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2203277749916781</v>
+        <v>1.9982949974925106</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Pc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9269257234335746</v>
+        <v>1.7342331510902171</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Pc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7334121507350464</v>
+        <v>1.5600709356615416</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12529,99 +12529,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Pc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9706251523726275</v>
+        <v>3.5735626371353644</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Pc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7241149361028749</v>
+        <v>3.3517034424925876</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Pc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4634031362109061</v>
+        <v>3.117062822589816</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Pc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5381175133636709</v>
+        <v>3.1843057620273041</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Pc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4630073144712257</v>
+        <v>3.116706583024103</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Pc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5036010347286166</v>
+        <v>3.153240931255755</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Pc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6590328443643978</v>
+        <v>4.1931295599279581</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Pc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8516647092932033</v>
+        <v>5.2664982383638836</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Pc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1847959763655656</v>
+        <v>5.5663163787290095</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Pc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9268481759394493</v>
+        <v>5.3341633583455046</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Pc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9083851001759271</v>
+        <v>5.3175465901583348</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Pc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.3293820697804479</v>
+        <v>5.6964438628024032</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Pc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5261393914319301</v>
+        <v>5.873525452288737</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Pc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0584035180428319</v>
+        <v>5.4525631662385479</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Pc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5198617562349375</v>
+        <v>4.9678755806114427</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Pc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2299713264110492</v>
+        <v>4.7069741937699439</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Pc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2917582007196797</v>
+        <v>4.7625823806477117</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Pc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1790852952104682</v>
+        <v>4.6611767656894223</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Pc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1144063273025564</v>
+        <v>4.6029656945723003</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Pc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5065296008626357</v>
+        <v>4.9558766407763724</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Pc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7546558638691634</v>
+        <v>5.1791902774822471</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Pc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5052272026618194</v>
+        <v>4.9547044823956377</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Pc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9033970711874089</v>
+        <v>4.4130573640686679</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Pc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1453374993777841</v>
+        <v>3.7308037494400055</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -12630,99 +12630,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Pc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.41492428232965273</v>
+        <v>0.3734318540966875</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Pc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32164364316385707</v>
+        <v>0.28947927884747138</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Pc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24384504780309771</v>
+        <v>0.21946054302278795</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Pc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29634827884482012</v>
+        <v>0.26671345096033811</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Pc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.25096336845974182</v>
+        <v>0.22586703161376767</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Pc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.20078066041007617</v>
+        <v>0.18070259436906855</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Pc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45374014793157741</v>
+        <v>0.40836613313841963</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Pc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84846350177938179</v>
+        <v>0.76361715160144361</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Pc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.038372536589206</v>
+        <v>0.93453528293028543</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Pc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0885214313050295</v>
+        <v>0.9796692881745267</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Pc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1029349331116556</v>
+        <v>0.99264143980049013</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Pc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0114194727489931</v>
+        <v>0.9102775254740938</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Pc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0880489405684484</v>
+        <v>0.97924404651160346</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Pc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0008543821091918</v>
+        <v>0.90076894389827245</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Pc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88241867575437283</v>
+        <v>0.79417680817893554</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Pc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81613408467542947</v>
+        <v>0.73452067620788652</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Pc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7444959286615167</v>
+        <v>0.67004633579536499</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Pc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.70232642906736809</v>
+        <v>0.63209378616063128</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Pc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.89823343164815661</v>
+        <v>0.80841008848334095</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Pc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0349438761516272</v>
+        <v>0.93144948853646448</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Pc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1557939051466264</v>
+        <v>1.0402145146319637</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Pc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1796887080706975</v>
+        <v>1.0617198372636278</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Pc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.88380106123804103</v>
+        <v>0.79542095511423694</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Pc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.62217584921587787</v>
+        <v>0.55995826429429008</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -12731,99 +12731,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Pc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.6898901970207856</v>
+        <v>3.3209011773187069</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Pc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3272069389248546</v>
+        <v>2.9944862450323693</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Pc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0823043948677062</v>
+        <v>2.7740739553809357</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Pc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0012850338320636</v>
+        <v>2.7011565304488574</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Pc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0941219269133291</v>
+        <v>2.7847097342219964</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Pc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0737375096619566</v>
+        <v>2.766363758695761</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Pc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3668895117822122</v>
+        <v>3.0302005606039915</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Pc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9407476997151138</v>
+        <v>3.5466729297436026</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Pc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4136283556349944</v>
+        <v>3.9722655200714949</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Pc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.6893954304279672</v>
+        <v>4.2204558873851701</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Pc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0740204437378562</v>
+        <v>4.5666183993640708</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Pc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3807821343716524</v>
+        <v>4.8427039209344871</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Pc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.469876834619388</v>
+        <v>4.9228891511574489</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Pc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1551654807060387</v>
+        <v>4.6396489326354349</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Pc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8933719527768638</v>
+        <v>4.4040347574991783</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Pc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8063421223279361</v>
+        <v>4.3257079100951428</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Pc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7694316828848686</v>
+        <v>4.292488514596382</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Pc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.7114604184864355</v>
+        <v>4.2403143766377918</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Pc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.799394349125607</v>
+        <v>4.3194549142130469</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Pc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.893791284572508</v>
+        <v>4.4044121561152565</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Pc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3390937655011292</v>
+        <v>4.805184388951016</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Pc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2953641074013387</v>
+        <v>4.765827696661205</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Pc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0130218738833472</v>
+        <v>4.5117196864950131</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Pc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3689227979326919</v>
+        <v>3.9320305181394226</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -12832,99 +12832,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Pc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7057617292114697</v>
+        <v>5.1351855562903239</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Pc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.541518989167872</v>
+        <v>4.9873670902510847</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Pc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2038162149413605</v>
+        <v>4.6834345934472239</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Pc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3607955422751008</v>
+        <v>4.8247159880475916</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Pc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4511182945269185</v>
+        <v>4.9060064650742277</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Pc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.4127663958145389</v>
+        <v>4.8714897562330846</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Pc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7037163875254837</v>
+        <v>5.1333447487729353</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Pc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9577304866783249</v>
+        <v>6.2619574380104925</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Pc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.303430371525633</v>
+        <v>6.5730873343730707</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Pc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3930807726780339</v>
+        <v>6.6537726954102299</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Pc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.4725191405201183</v>
+        <v>6.7252672264681062</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Pc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8636410175980087</v>
+        <v>7.0772769158382083</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Pc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7557578463185237</v>
+        <v>6.9801820616866719</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Pc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3864067497709591</v>
+        <v>6.6477660747938634</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Pc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9463477247537337</v>
+        <v>6.2517129522783597</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Pc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7602541132005234</v>
+        <v>6.0842287018804706</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Pc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9971252397079979</v>
+        <v>6.297412715737198</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Pc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.774771203598827</v>
+        <v>6.0972940832389444</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Pc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4624245349156881</v>
+        <v>5.8161820814241185</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Pc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5743476446792393</v>
+        <v>5.9169128802113153</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Pc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7859440963805824</v>
+        <v>6.1073496867425243</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Pc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4292431603373554</v>
+        <v>5.7863188443036195</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Pc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9157143850097729</v>
+        <v>5.324142946508795</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Pc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8648653609932628</v>
+        <v>5.2783788248939372</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -12933,99 +12933,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Pc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9586590044567584</v>
+        <v>2.6627931040110826</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Pc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6853175095890558</v>
+        <v>2.4167857586301502</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Pc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6382635304055615</v>
+        <v>2.3744371773650053</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Pc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6832468452334046</v>
+        <v>2.4149221607100642</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Pc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.6199568454589155</v>
+        <v>2.3579611609130242</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Pc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.772225513317145</v>
+        <v>2.4950029619854304</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Pc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4137687334360898</v>
+        <v>3.0723918600924813</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Pc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9218369581417813</v>
+        <v>3.5296532623276033</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Pc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5289151662407745</v>
+        <v>4.0760236496166975</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Pc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8445285795985082</v>
+        <v>4.3600757216386574</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Pc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9007222299172062</v>
+        <v>4.4106500069254855</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Pc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0862583943177722</v>
+        <v>4.5776325548859953</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Pc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.995788442901163</v>
+        <v>4.4962095986110464</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Pc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.031703827936064</v>
+        <v>4.5285334451424575</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Pc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8556657717712861</v>
+        <v>4.3700991945941574</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Pc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5384787898848096</v>
+        <v>4.0846309108963288</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Pc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5792741374923072</v>
+        <v>4.1213467237430761</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Pc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4094762466422077</v>
+        <v>3.9685286219779869</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Pc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3659276466674823</v>
+        <v>3.9293348820007341</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Pc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.4378467826921657</v>
+        <v>3.994062104422949</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Pc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.5091138340488763</v>
+        <v>4.0582024506439884</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Pc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9512825400306135</v>
+        <v>3.5561542860275517</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Pc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7728877998526258</v>
+        <v>3.3955990198673631</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Pc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.2639205021599054</v>
+        <v>2.9375284519439147</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -13034,99 +13034,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Pc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8853979056809407</v>
+        <v>1.6968581151128468</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Pc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.763501849257709</v>
+        <v>1.5871516643319381</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Pc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6937282339718787</v>
+        <v>1.5243554105746908</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Pc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6744898199565874</v>
+        <v>1.5070408379609286</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Pc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7400119352896797</v>
+        <v>1.5660107417607119</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Pc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8712556530115323</v>
+        <v>1.6841300877103791</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Pc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9493927697475208</v>
+        <v>2.6544534927727685</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Pc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5584341629202076</v>
+        <v>3.2025907466281871</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Pc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8601601140474324</v>
+        <v>3.4741441026426894</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Pc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8726771117365524</v>
+        <v>3.4854094005628973</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Pc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0864716582697849</v>
+        <v>3.6778244924428067</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Pc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.3133052725686847</v>
+        <v>3.8819747453118163</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Pc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1960643358098579</v>
+        <v>3.7764579022288722</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Pc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8303643285550342</v>
+        <v>3.447327895699531</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Pc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.3456898538905082</v>
+        <v>3.0111208685014574</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Pc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1992492741539742</v>
+        <v>2.879324346738577</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Pc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0669817947026221</v>
+        <v>2.76028361523236</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Pc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9934671438354874</v>
+        <v>2.6941204294519387</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Pc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9861244821614026</v>
+        <v>2.6875120339452625</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Pc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0890980088004603</v>
+        <v>2.7801882079204145</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Pc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.0283562867221407</v>
+        <v>2.7255206580499265</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Pc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7977874770252109</v>
+        <v>2.5180087293226898</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Pc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.3469858828440882</v>
+        <v>2.1122872945596791</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Pc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0804928448801965</v>
+        <v>1.872443560392177</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -13135,99 +13135,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Pc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8264499494392237</v>
+        <v>1.6438049544953013</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Pc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6872752877184403</v>
+        <v>1.5185477589465961</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Pc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6334766973899755</v>
+        <v>1.470129027650978</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Pc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5341608095105543</v>
+        <v>1.3807447285594989</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Pc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.555293002501015</v>
+        <v>1.3997637022509135</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Pc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5407829012424945</v>
+        <v>1.3867046111182451</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Pc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5118984000294247</v>
+        <v>1.3607085600264821</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Pc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.7360175651674374</v>
+        <v>1.5624158086506936</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Pc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5701994481292538</v>
+        <v>1.4131795033163284</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Pc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6663451617509735</v>
+        <v>1.499710645575876</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Pc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8306164473494662</v>
+        <v>1.6475548026145197</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Pc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0540386562977337</v>
+        <v>1.8486347906679603</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Pc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0906656560505703</v>
+        <v>1.8815990904455133</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Pc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0216011709160684</v>
+        <v>1.8194410538244616</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Pc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9019139315362066</v>
+        <v>1.711722538382586</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Pc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9234427924292647</v>
+        <v>1.7310985131863383</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Pc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9364204594612646</v>
+        <v>1.7427784135151381</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Pc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8976890234975092</v>
+        <v>1.7079201211477584</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Pc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.9281659411035244</v>
+        <v>1.735349346993172</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Pc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0403724158958725</v>
+        <v>1.8363351743062852</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Pc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.1529612650740839</v>
+        <v>1.9376651385666754</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Pc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0915785994728746</v>
+        <v>1.8824207395255874</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Pc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8302998082082944</v>
+        <v>1.6472698273874649</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Pc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.8658006107443197</v>
+        <v>1.6792205496698878</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -13236,99 +13236,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Pc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7562626498777898</v>
+        <v>2.480636384890011</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Pc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5484475343406272</v>
+        <v>2.2936027809065647</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Pc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4588243058023087</v>
+        <v>2.2129418752220782</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Pc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.4649494551780657</v>
+        <v>2.2184545096602593</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Pc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.471752318832908</v>
+        <v>2.2245770869496173</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Pc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5198407072959479</v>
+        <v>2.2678566365663531</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Pc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9280740932344642</v>
+        <v>2.6352666839110177</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Pc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4247890638733844</v>
+        <v>3.0823101574860461</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Pc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7238021212862611</v>
+        <v>3.3514219091576352</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Pc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9209009650756896</v>
+        <v>3.528810868568121</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Pc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9425910283002539</v>
+        <v>3.5483319254702286</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Pc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.07221207930486</v>
+        <v>3.6649908713743735</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Pc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1280951836849633</v>
+        <v>3.715285665316467</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Pc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.93934055981825</v>
+        <v>3.5454065038364249</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Pc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7989599375821048</v>
+        <v>3.4190639438238946</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Pc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5528744992448127</v>
+        <v>3.1975870493203318</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Pc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4729696550594338</v>
+        <v>3.125672689553491</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Pc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4617382235656438</v>
+        <v>3.1155644012090797</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Pc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5351502149611647</v>
+        <v>3.181635193465048</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Pc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7480850765616087</v>
+        <v>3.3732765689054478</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Pc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.0179764790123453</v>
+        <v>3.6161788311111112</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Pc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.8027575374953035</v>
+        <v>3.4224817837457735</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Pc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.4434931218583937</v>
+        <v>3.0991438096725541</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Pc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9795839290109969</v>
+        <v>2.6816255361098973</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -13337,99 +13337,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Pc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.91014273503961607</v>
+        <v>0.81912846153565444</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Pc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81797281328666949</v>
+        <v>0.73617553195800256</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Pc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.7689941121115117</v>
+        <v>0.69209470090036052</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Pc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74349179874127524</v>
+        <v>0.66914261886714776</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Pc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.75416043649418141</v>
+        <v>0.67874439284476318</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Pc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.81116503442076193</v>
+        <v>0.73004853097868583</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Pc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.95695342579288833</v>
+        <v>0.86125808321359953</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Pc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1496516707460791</v>
+        <v>1.0346865036714712</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Pc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2897143140830996</v>
+        <v>1.1607428826747896</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Pc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3793353525526901</v>
+        <v>1.2414018172974213</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Pc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4692309377061621</v>
+        <v>1.322307843935546</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Pc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5228583874366972</v>
+        <v>1.3705725486930274</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Pc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4798346905251512</v>
+        <v>1.3318512214726361</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Pc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3985913327442352</v>
+        <v>1.2587321994698117</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Pc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3072086701853372</v>
+        <v>1.1764878031668036</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Pc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.234153995968891</v>
+        <v>1.110738596372002</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Pc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2248873962481985</v>
+        <v>1.1023986566233788</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Pc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2898727083151196</v>
+        <v>1.1608854374836075</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Pc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3654567169628118</v>
+        <v>1.2289110452665308</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Pc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4100893387399096</v>
+        <v>1.2690804048659188</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Pc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5508641069813296</v>
+        <v>1.3957776962831967</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Pc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4572879993387304</v>
+        <v>1.3115591994048574</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Pc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3236787211887497</v>
+        <v>1.1913108490698749</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Pc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1153500469785029</v>
+        <v>1.0038150422806527</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -13438,99 +13438,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Pc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0117992163800045</v>
+        <v>5.4106192947420038</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Pc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9170950615761759</v>
+        <v>5.3253855554185581</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Pc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.1803877786545005</v>
+        <v>5.5623490007890508</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Pc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6293633924520829</v>
+        <v>5.0664270532068745</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Pc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.2521179235646276</v>
+        <v>4.7269061312081648</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Pc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.19974910799107</v>
+        <v>4.6797741971919633</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Pc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3786140326969027</v>
+        <v>4.8407526294272127</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Pc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6869961543527854</v>
+        <v>5.118296538917507</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Pc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0676309555553756</v>
+        <v>4.5608678599998376</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Pc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.1981777811671357</v>
+        <v>3.7783600030504219</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Pc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.5653530425718953</v>
+        <v>5.0088177383147068</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Pc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0097235828911417</v>
+        <v>5.4087512246020273</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Pc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9958815189603021</v>
+        <v>5.3962933670642723</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Pc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0256805729643625</v>
+        <v>5.4231125156679267</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Pc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.1650377132392453</v>
+        <v>4.6485339419153213</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Pc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4519851699827182</v>
+        <v>5.8067866529844467</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Pc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9558718087345941</v>
+        <v>5.3602846278611356</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Pc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.7966810263201536</v>
+        <v>5.2170129236881388</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Pc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.9734287850405856</v>
+        <v>5.3760859065365265</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Pc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.4403207187637346</v>
+        <v>5.7962886468873602</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Pc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7791718563572108</v>
+        <v>6.1012546707214899</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Pc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7525839201116309</v>
+        <v>6.0773255281004674</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Pc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7233419109180428</v>
+        <v>6.0510077198262389</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Pc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7934599642856011</v>
+        <v>6.1141139678570413</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -13539,99 +13539,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Pc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.468714043991016</v>
+        <v>9.4218426395919135</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Pc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.319112618528161</v>
+        <v>9.2872013566753449</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Pc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.185988444749233</v>
+        <v>9.1673896002743085</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Pc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.134485722548206</v>
+        <v>9.121037150293386</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Pc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.05844150496981</v>
+        <v>9.0525973544728302</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Pc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.209033077925479</v>
+        <v>9.1881297701329316</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Pc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.52629749844855</v>
+        <v>10.373667748603694</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Pc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.039671612615809</v>
+        <v>10.835704451354228</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Pc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.788741715503807</v>
+        <v>11.509867543953428</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Pc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.322399891373495</v>
+        <v>11.090159902236145</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Pc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.530347481181543</v>
+        <v>11.27731273306339</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Pc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.613537125664948</v>
+        <v>11.352183413098453</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Pc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.814941922479575</v>
+        <v>11.533447730231616</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Pc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.582727321760173</v>
+        <v>11.324454589584157</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Pc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.218126102680204</v>
+        <v>10.996313492412183</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Pc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.159893286835246</v>
+        <v>10.943903958151722</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Pc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.241928831464845</v>
+        <v>11.017735948318361</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Pc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.375974572061693</v>
+        <v>11.138377114855524</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Pc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.721410484975522</v>
+        <v>10.549269436477969</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Pc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.062301791876758</v>
+        <v>10.856071612689083</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Pc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>12.268130788836446</v>
+        <v>11.041317709952802</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Pc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>11.770910260741442</v>
+        <v>10.593819234667299</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Pc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.675281596002705</v>
+        <v>9.6077534364024348</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Pc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>10.526833897086483</v>
+        <v>9.4741505073778356</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -13640,99 +13640,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Pc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34463000309094516</v>
+        <v>0.31016700278185061</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Pc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32242238680658308</v>
+        <v>0.2901801481259248</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Pc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.3132048272043908</v>
+        <v>0.28188434448395172</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Pc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.30616804512928075</v>
+        <v>0.27555124061635272</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Pc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.31016078099569228</v>
+        <v>0.27914470289612309</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Pc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.32947426293491316</v>
+        <v>0.29652683664142188</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Pc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38655291670820802</v>
+        <v>0.34789762503738725</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Pc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.44815183085699495</v>
+        <v>0.40333664777129546</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Pc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49422913893649345</v>
+        <v>0.44480622504284412</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Pc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52980873002457074</v>
+        <v>0.47682785702211367</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Pc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57006517140217416</v>
+        <v>0.51305865426195674</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Pc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.58576046070600229</v>
+        <v>0.52718441463540211</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Pc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56892466407719855</v>
+        <v>0.51203219766947872</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Pc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.52237128151229173</v>
+        <v>0.47013415336106251</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Pc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46047175969133419</v>
+        <v>0.41442458372220076</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Pc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45681529062749537</v>
+        <v>0.41113376156474585</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Pc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.4603005734669729</v>
+        <v>0.41427051612027566</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Pc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.45022192695617752</v>
+        <v>0.40519973426055977</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Pc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46390720602368329</v>
+        <v>0.41751648542131503</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Pc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.49529196103949552</v>
+        <v>0.44576276493554601</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Pc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.51082304496303221</v>
+        <v>0.45974074046672897</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Pc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.46572580508277217</v>
+        <v>0.419153224574495</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Pc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42468859590801267</v>
+        <v>0.3822197363172114</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Pc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.36944474272496314</v>
+        <v>0.33250026845246683</v>
       </c>
     </row>
   </sheetData>
@@ -19862,99 +19862,99 @@
       </c>
       <c r="B2" s="1">
         <f>'[1]Qc, 2020, Summer'!B2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54810066104230648</v>
+        <v>0.49329059493807592</v>
       </c>
       <c r="C2" s="1">
         <f>'[1]Qc, 2020, Summer'!C2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59370339201293199</v>
+        <v>0.53433305281163879</v>
       </c>
       <c r="D2" s="1">
         <f>'[1]Qc, 2020, Summer'!D2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56581103755996243</v>
+        <v>0.50922993380396619</v>
       </c>
       <c r="E2" s="1">
         <f>'[1]Qc, 2020, Summer'!E2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55466060127838179</v>
+        <v>0.49919454115054357</v>
       </c>
       <c r="F2" s="1">
         <f>'[1]Qc, 2020, Summer'!F2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.53992297759576435</v>
+        <v>0.48593067983618798</v>
       </c>
       <c r="G2" s="1">
         <f>'[1]Qc, 2020, Summer'!G2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.57101778078516696</v>
+        <v>0.51391600270665028</v>
       </c>
       <c r="H2" s="1">
         <f>'[1]Qc, 2020, Summer'!H2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.56006297819969253</v>
+        <v>0.50405668037972329</v>
       </c>
       <c r="I2" s="1">
         <f>'[1]Qc, 2020, Summer'!I2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.000249126751706</v>
+        <v>0.9002242140765353</v>
       </c>
       <c r="J2" s="1">
         <f>'[1]Qc, 2020, Summer'!J2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1705632350515067</v>
+        <v>1.053506911546356</v>
       </c>
       <c r="K2" s="1">
         <f>'[1]Qc, 2020, Summer'!K2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1572317516321102</v>
+        <v>1.0415085764688992</v>
       </c>
       <c r="L2" s="1">
         <f>'[1]Qc, 2020, Summer'!L2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.119596395292302</v>
+        <v>1.0076367557630719</v>
       </c>
       <c r="M2" s="1">
         <f>'[1]Qc, 2020, Summer'!M2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1256066448691426</v>
+        <v>1.0130459803822285</v>
       </c>
       <c r="N2" s="1">
         <f>'[1]Qc, 2020, Summer'!N2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1929396940207773</v>
+        <v>1.0736457246186997</v>
       </c>
       <c r="O2" s="1">
         <f>'[1]Qc, 2020, Summer'!O2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1651479334064163</v>
+        <v>1.0486331400657747</v>
       </c>
       <c r="P2" s="1">
         <f>'[1]Qc, 2020, Summer'!P2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.84045282766475993</v>
+        <v>0.75640754489828388</v>
       </c>
       <c r="Q2" s="1">
         <f>'[1]Qc, 2020, Summer'!Q2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0838883948336306</v>
+        <v>0.97549955535026767</v>
       </c>
       <c r="R2" s="1">
         <f>'[1]Qc, 2020, Summer'!R2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0897263631517464</v>
+        <v>0.9807537268365718</v>
       </c>
       <c r="S2" s="1">
         <f>'[1]Qc, 2020, Summer'!S2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0085367533075238</v>
+        <v>0.90768307797677139</v>
       </c>
       <c r="T2" s="1">
         <f>'[1]Qc, 2020, Summer'!T2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.80685713190256958</v>
+        <v>0.72617141871231261</v>
       </c>
       <c r="U2" s="1">
         <f>'[1]Qc, 2020, Summer'!U2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74779505151127834</v>
+        <v>0.6730155463601506</v>
       </c>
       <c r="V2" s="1">
         <f>'[1]Qc, 2020, Summer'!V2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77789367207529225</v>
+        <v>0.70010430486776309</v>
       </c>
       <c r="W2" s="1">
         <f>'[1]Qc, 2020, Summer'!W2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.77065124752407588</v>
+        <v>0.69358612277166831</v>
       </c>
       <c r="X2" s="1">
         <f>'[1]Qc, 2020, Summer'!X2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.55352087375060477</v>
+        <v>0.49816878637554429</v>
       </c>
       <c r="Y2" s="1">
         <f>'[1]Qc, 2020, Summer'!Y2*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.54236124996479695</v>
+        <v>0.48812512496831723</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -19963,99 +19963,99 @@
       </c>
       <c r="B3" s="1">
         <f>'[1]Qc, 2020, Summer'!B3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2102646456155613E-2</v>
+        <v>-1.9892381810540052E-2</v>
       </c>
       <c r="C3" s="1">
         <f>'[1]Qc, 2020, Summer'!C3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.3795371591092198E-2</v>
+        <v>-4.8415834431982975E-2</v>
       </c>
       <c r="D3" s="1">
         <f>'[1]Qc, 2020, Summer'!D3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8808202481027624E-2</v>
+        <v>-5.2927382232924855E-2</v>
       </c>
       <c r="E3" s="1">
         <f>'[1]Qc, 2020, Summer'!E3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.2923489929225524E-2</v>
+        <v>-6.5631140936302984E-2</v>
       </c>
       <c r="F3" s="1">
         <f>'[1]Qc, 2020, Summer'!F3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.2029994796348385E-2</v>
+        <v>-7.3826995316713551E-2</v>
       </c>
       <c r="G3" s="1">
         <f>'[1]Qc, 2020, Summer'!G3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6709803522332143E-2</v>
+        <v>-6.9038823170098934E-2</v>
       </c>
       <c r="H3" s="1">
         <f>'[1]Qc, 2020, Summer'!H3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.8251835890966667E-2</v>
+        <v>-7.0426652301870007E-2</v>
       </c>
       <c r="I3" s="1">
         <f>'[1]Qc, 2020, Summer'!I3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12277486712667086</v>
+        <v>0.11049738041400378</v>
       </c>
       <c r="J3" s="1">
         <f>'[1]Qc, 2020, Summer'!J3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17145643238633476</v>
+        <v>0.1543107891477013</v>
       </c>
       <c r="K3" s="1">
         <f>'[1]Qc, 2020, Summer'!K3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.22004152262982699</v>
+        <v>0.1980373703668443</v>
       </c>
       <c r="L3" s="1">
         <f>'[1]Qc, 2020, Summer'!L3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11802021962302053</v>
+        <v>0.10621819766071848</v>
       </c>
       <c r="M3" s="1">
         <f>'[1]Qc, 2020, Summer'!M3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.0656820689948278E-2</v>
+        <v>8.1591138620953449E-2</v>
       </c>
       <c r="N3" s="1">
         <f>'[1]Qc, 2020, Summer'!N3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.3513313137388753E-2</v>
+        <v>4.8161981823649877E-2</v>
       </c>
       <c r="O3" s="1">
         <f>'[1]Qc, 2020, Summer'!O3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1088369953957467E-2</v>
+        <v>6.3979532958561722E-2</v>
       </c>
       <c r="P3" s="1">
         <f>'[1]Qc, 2020, Summer'!P3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4582634841554986E-2</v>
+        <v>1.3124371357399488E-2</v>
       </c>
       <c r="Q3" s="1">
         <f>'[1]Qc, 2020, Summer'!Q3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.157107465231811E-2</v>
+        <v>1.0413967187086299E-2</v>
       </c>
       <c r="R3" s="1">
         <f>'[1]Qc, 2020, Summer'!R3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.0162847002701746E-2</v>
+        <v>1.8146562302431571E-2</v>
       </c>
       <c r="S3" s="1">
         <f>'[1]Qc, 2020, Summer'!S3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.8041350745579028E-2</v>
+        <v>5.2237215671021124E-2</v>
       </c>
       <c r="T3" s="1">
         <f>'[1]Qc, 2020, Summer'!T3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15444516064857783</v>
+        <v>0.13900064458372002</v>
       </c>
       <c r="U3" s="1">
         <f>'[1]Qc, 2020, Summer'!U3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17598531200958517</v>
+        <v>0.15838678080862667</v>
       </c>
       <c r="V3" s="1">
         <f>'[1]Qc, 2020, Summer'!V3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12671771671166457</v>
+        <v>0.11404594504049811</v>
       </c>
       <c r="W3" s="1">
         <f>'[1]Qc, 2020, Summer'!W3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.225841629140559E-2</v>
+        <v>8.3032574662265032E-2</v>
       </c>
       <c r="X3" s="1">
         <f>'[1]Qc, 2020, Summer'!X3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.9503743145840072E-2</v>
+        <v>2.6553368831256065E-2</v>
       </c>
       <c r="Y3" s="1">
         <f>'[1]Qc, 2020, Summer'!Y3*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7587160264575481E-2</v>
+        <v>-1.5828444238117932E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -20064,99 +20064,99 @@
       </c>
       <c r="B4" s="1">
         <f>'[1]Qc, 2020, Summer'!B4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18170719009370048</v>
+        <v>-0.16353647108433045</v>
       </c>
       <c r="C4" s="1">
         <f>'[1]Qc, 2020, Summer'!C4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31238258083284554</v>
+        <v>-0.28114432274956097</v>
       </c>
       <c r="D4" s="1">
         <f>'[1]Qc, 2020, Summer'!D4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46256885834244404</v>
+        <v>-0.41631197250819962</v>
       </c>
       <c r="E4" s="1">
         <f>'[1]Qc, 2020, Summer'!E4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44843593420441585</v>
+        <v>-0.40359234078397427</v>
       </c>
       <c r="F4" s="1">
         <f>'[1]Qc, 2020, Summer'!F4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45890835756117443</v>
+        <v>-0.41301752180505702</v>
       </c>
       <c r="G4" s="1">
         <f>'[1]Qc, 2020, Summer'!G4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45018015388391014</v>
+        <v>-0.40516213849551919</v>
       </c>
       <c r="H4" s="1">
         <f>'[1]Qc, 2020, Summer'!H4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15882589539554001</v>
+        <v>-0.14294330585598602</v>
       </c>
       <c r="I4" s="1">
         <f>'[1]Qc, 2020, Summer'!I4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26428938915089129</v>
+        <v>0.23786045023580213</v>
       </c>
       <c r="J4" s="1">
         <f>'[1]Qc, 2020, Summer'!J4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38669704231063778</v>
+        <v>0.34802733807957403</v>
       </c>
       <c r="K4" s="1">
         <f>'[1]Qc, 2020, Summer'!K4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.39904105775312482</v>
+        <v>0.35913695197781231</v>
       </c>
       <c r="L4" s="1">
         <f>'[1]Qc, 2020, Summer'!L4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33524366302170616</v>
+        <v>0.30171929671953557</v>
       </c>
       <c r="M4" s="1">
         <f>'[1]Qc, 2020, Summer'!M4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.43436737651812479</v>
+        <v>0.39093063886631235</v>
       </c>
       <c r="N4" s="1">
         <f>'[1]Qc, 2020, Summer'!N4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.37813067558706753</v>
+        <v>0.34031760802836081</v>
       </c>
       <c r="O4" s="1">
         <f>'[1]Qc, 2020, Summer'!O4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29086268345971233</v>
+        <v>0.26177641511374111</v>
       </c>
       <c r="P4" s="1">
         <f>'[1]Qc, 2020, Summer'!P4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15824082351235175</v>
+        <v>0.14241674116111658</v>
       </c>
       <c r="Q4" s="1">
         <f>'[1]Qc, 2020, Summer'!Q4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.0642344576043788E-2</v>
+        <v>4.5578110118439409E-2</v>
       </c>
       <c r="R4" s="1">
         <f>'[1]Qc, 2020, Summer'!R4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.103902630113944</v>
+        <v>9.3512367102549621E-2</v>
       </c>
       <c r="S4" s="1">
         <f>'[1]Qc, 2020, Summer'!S4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.8652788530299084E-2</v>
+        <v>7.0787509677269184E-2</v>
       </c>
       <c r="T4" s="1">
         <f>'[1]Qc, 2020, Summer'!T4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8982375162744974E-2</v>
+        <v>-5.3084137646470478E-2</v>
       </c>
       <c r="U4" s="1">
         <f>'[1]Qc, 2020, Summer'!U4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.9322118883955074E-2</v>
+        <v>4.4389906995559565E-2</v>
       </c>
       <c r="V4" s="1">
         <f>'[1]Qc, 2020, Summer'!V4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10498330874322072</v>
+        <v>9.4484977868898645E-2</v>
       </c>
       <c r="W4" s="1">
         <f>'[1]Qc, 2020, Summer'!W4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.7543303953770196E-2</v>
+        <v>2.4788973558393178E-2</v>
       </c>
       <c r="X4" s="1">
         <f>'[1]Qc, 2020, Summer'!X4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.26123733342947825</v>
+        <v>-0.23511360008653046</v>
       </c>
       <c r="Y4" s="1">
         <f>'[1]Qc, 2020, Summer'!Y4*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41633967646281983</v>
+        <v>-0.37470570881653786</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -20165,99 +20165,99 @@
       </c>
       <c r="B5" s="1">
         <f>'[1]Qc, 2020, Summer'!B5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.60946766433382682</v>
+        <v>-0.54852089790044423</v>
       </c>
       <c r="C5" s="1">
         <f>'[1]Qc, 2020, Summer'!C5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.61512302737605162</v>
+        <v>-0.55361072463844641</v>
       </c>
       <c r="D5" s="1">
         <f>'[1]Qc, 2020, Summer'!D5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.62950728263987576</v>
+        <v>-0.56655655437588825</v>
       </c>
       <c r="E5" s="1">
         <f>'[1]Qc, 2020, Summer'!E5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.6313905924228691</v>
+        <v>-0.5682515331805823</v>
       </c>
       <c r="F5" s="1">
         <f>'[1]Qc, 2020, Summer'!F5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.64247701482059494</v>
+        <v>-0.57822931333853544</v>
       </c>
       <c r="G5" s="1">
         <f>'[1]Qc, 2020, Summer'!G5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.67002562803188692</v>
+        <v>-0.60302306522869831</v>
       </c>
       <c r="H5" s="1">
         <f>'[1]Qc, 2020, Summer'!H5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.61035035328397191</v>
+        <v>-0.54931531795557476</v>
       </c>
       <c r="I5" s="1">
         <f>'[1]Qc, 2020, Summer'!I5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42441565444495988</v>
+        <v>-0.38197408900046392</v>
       </c>
       <c r="J5" s="1">
         <f>'[1]Qc, 2020, Summer'!J5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.33877701952890071</v>
+        <v>-0.30489931757601058</v>
       </c>
       <c r="K5" s="1">
         <f>'[1]Qc, 2020, Summer'!K5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3636134856401837</v>
+        <v>-0.32725213707616535</v>
       </c>
       <c r="L5" s="1">
         <f>'[1]Qc, 2020, Summer'!L5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43197629847103208</v>
+        <v>-0.3887786686239289</v>
       </c>
       <c r="M5" s="1">
         <f>'[1]Qc, 2020, Summer'!M5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47677858420881103</v>
+        <v>-0.42910072578792996</v>
       </c>
       <c r="N5" s="1">
         <f>'[1]Qc, 2020, Summer'!N5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45965932300263201</v>
+        <v>-0.41369339070236888</v>
       </c>
       <c r="O5" s="1">
         <f>'[1]Qc, 2020, Summer'!O5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.49470143472377509</v>
+        <v>-0.44523129125139765</v>
       </c>
       <c r="P5" s="1">
         <f>'[1]Qc, 2020, Summer'!P5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47733114518539316</v>
+        <v>-0.42959803066685393</v>
       </c>
       <c r="Q5" s="1">
         <f>'[1]Qc, 2020, Summer'!Q5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.53452469460974572</v>
+        <v>-0.48107222514877118</v>
       </c>
       <c r="R5" s="1">
         <f>'[1]Qc, 2020, Summer'!R5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.57484077388160593</v>
+        <v>-0.51735669649344529</v>
       </c>
       <c r="S5" s="1">
         <f>'[1]Qc, 2020, Summer'!S5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51562448859430832</v>
+        <v>-0.46406203973487747</v>
       </c>
       <c r="T5" s="1">
         <f>'[1]Qc, 2020, Summer'!T5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3798019759327857</v>
+        <v>-0.34182177833950717</v>
       </c>
       <c r="U5" s="1">
         <f>'[1]Qc, 2020, Summer'!U5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35058861184267148</v>
+        <v>-0.31552975065840433</v>
       </c>
       <c r="V5" s="1">
         <f>'[1]Qc, 2020, Summer'!V5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35889395804546859</v>
+        <v>-0.32300456224092172</v>
       </c>
       <c r="W5" s="1">
         <f>'[1]Qc, 2020, Summer'!W5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42573637787994123</v>
+        <v>-0.38316274009194712</v>
       </c>
       <c r="X5" s="1">
         <f>'[1]Qc, 2020, Summer'!X5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.51598745930307266</v>
+        <v>-0.46438871337276538</v>
       </c>
       <c r="Y5" s="1">
         <f>'[1]Qc, 2020, Summer'!Y5*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.53954850487832207</v>
+        <v>-0.48559365439048985</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -20266,99 +20266,99 @@
       </c>
       <c r="B6" s="1">
         <f>'[1]Qc, 2020, Summer'!B6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29582992524853668</v>
+        <v>-0.26624693272368305</v>
       </c>
       <c r="C6" s="1">
         <f>'[1]Qc, 2020, Summer'!C6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36462042365991132</v>
+        <v>-0.32815838129392022</v>
       </c>
       <c r="D6" s="1">
         <f>'[1]Qc, 2020, Summer'!D6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41965445332655599</v>
+        <v>-0.37768900799390043</v>
       </c>
       <c r="E6" s="1">
         <f>'[1]Qc, 2020, Summer'!E6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.42965162347367908</v>
+        <v>-0.38668646112631117</v>
       </c>
       <c r="F6" s="1">
         <f>'[1]Qc, 2020, Summer'!F6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43702205505331759</v>
+        <v>-0.39331984954798582</v>
       </c>
       <c r="G6" s="1">
         <f>'[1]Qc, 2020, Summer'!G6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47426138640843091</v>
+        <v>-0.42683524776758786</v>
       </c>
       <c r="H6" s="1">
         <f>'[1]Qc, 2020, Summer'!H6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44566777028969429</v>
+        <v>-0.4011009932607249</v>
       </c>
       <c r="I6" s="1">
         <f>'[1]Qc, 2020, Summer'!I6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24186316418806861</v>
+        <v>-0.21767684776926177</v>
       </c>
       <c r="J6" s="1">
         <f>'[1]Qc, 2020, Summer'!J6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.8563536962135961E-2</v>
+        <v>-5.2707183265922365E-2</v>
       </c>
       <c r="K6" s="1">
         <f>'[1]Qc, 2020, Summer'!K6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.9433349948686982E-2</v>
+        <v>6.2490014953818292E-2</v>
       </c>
       <c r="L6" s="1">
         <f>'[1]Qc, 2020, Summer'!L6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.17300691394057235</v>
+        <v>0.15570622254651514</v>
       </c>
       <c r="M6" s="1">
         <f>'[1]Qc, 2020, Summer'!M6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.19989336319031642</v>
+        <v>0.17990402687128479</v>
       </c>
       <c r="N6" s="1">
         <f>'[1]Qc, 2020, Summer'!N6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.15715674363997514</v>
+        <v>0.14144106927597763</v>
       </c>
       <c r="O6" s="1">
         <f>'[1]Qc, 2020, Summer'!O6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10326344113475024</v>
+        <v>9.2937097021275214E-2</v>
       </c>
       <c r="P6" s="1">
         <f>'[1]Qc, 2020, Summer'!P6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1558861331810587E-2</v>
+        <v>2.840297519862953E-2</v>
       </c>
       <c r="Q6" s="1">
         <f>'[1]Qc, 2020, Summer'!Q6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.5930496693655383E-3</v>
+        <v>-2.3337447024289843E-3</v>
       </c>
       <c r="R6" s="1">
         <f>'[1]Qc, 2020, Summer'!R6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2438029765093709E-2</v>
+        <v>-2.0194226788584339E-2</v>
       </c>
       <c r="S6" s="1">
         <f>'[1]Qc, 2020, Summer'!S6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7027136278357101E-2</v>
+        <v>-2.4324422650521392E-2</v>
       </c>
       <c r="T6" s="1">
         <f>'[1]Qc, 2020, Summer'!T6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7280247849098065E-2</v>
+        <v>-1.5552223064188259E-2</v>
       </c>
       <c r="U6" s="1">
         <f>'[1]Qc, 2020, Summer'!U6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.761910300615522E-2</v>
+        <v>-5.1857192705539699E-2</v>
       </c>
       <c r="V6" s="1">
         <f>'[1]Qc, 2020, Summer'!V6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.866111217463262E-2</v>
+        <v>4.3795000957169358E-2</v>
       </c>
       <c r="W6" s="1">
         <f>'[1]Qc, 2020, Summer'!W6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.2635061289156912E-2</v>
+        <v>2.0371555160241219E-2</v>
       </c>
       <c r="X6" s="1">
         <f>'[1]Qc, 2020, Summer'!X6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5354339570207119E-2</v>
+        <v>-1.3818905613186407E-2</v>
       </c>
       <c r="Y6" s="1">
         <f>'[1]Qc, 2020, Summer'!Y6*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.10972932040768323</v>
+        <v>-9.8756388366914902E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -20367,99 +20367,99 @@
       </c>
       <c r="B7" s="1">
         <f>'[1]Qc, 2020, Summer'!B7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71969609642713417</v>
+        <v>0.64772648678442069</v>
       </c>
       <c r="C7" s="1">
         <f>'[1]Qc, 2020, Summer'!C7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.79939671255579392</v>
+        <v>0.71945704130021448</v>
       </c>
       <c r="D7" s="1">
         <f>'[1]Qc, 2020, Summer'!D7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.632858962991246</v>
+        <v>0.56957306669212138</v>
       </c>
       <c r="E7" s="1">
         <f>'[1]Qc, 2020, Summer'!E7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.71923392555986077</v>
+        <v>0.64731053300387476</v>
       </c>
       <c r="F7" s="1">
         <f>'[1]Qc, 2020, Summer'!F7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73558011324443284</v>
+        <v>0.66202210191998967</v>
       </c>
       <c r="G7" s="1">
         <f>'[1]Qc, 2020, Summer'!G7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74120971809196223</v>
+        <v>0.66708874628276593</v>
       </c>
       <c r="H7" s="1">
         <f>'[1]Qc, 2020, Summer'!H7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.68331630482979944</v>
+        <v>0.61498467434681958</v>
       </c>
       <c r="I7" s="1">
         <f>'[1]Qc, 2020, Summer'!I7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.1779338947633042</v>
+        <v>1.0601405052869739</v>
       </c>
       <c r="J7" s="1">
         <f>'[1]Qc, 2020, Summer'!J7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3482873330473413</v>
+        <v>1.2134585997426071</v>
       </c>
       <c r="K7" s="1">
         <f>'[1]Qc, 2020, Summer'!K7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3990931986071993</v>
+        <v>1.2591838787464793</v>
       </c>
       <c r="L7" s="1">
         <f>'[1]Qc, 2020, Summer'!L7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2468449547989984</v>
+        <v>1.1221604593190986</v>
       </c>
       <c r="M7" s="1">
         <f>'[1]Qc, 2020, Summer'!M7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4655756839645528</v>
+        <v>1.3190181155680976</v>
       </c>
       <c r="N7" s="1">
         <f>'[1]Qc, 2020, Summer'!N7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5071506752998396</v>
+        <v>1.3564356077698558</v>
       </c>
       <c r="O7" s="1">
         <f>'[1]Qc, 2020, Summer'!O7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.3881685675367352</v>
+        <v>1.2493517107830618</v>
       </c>
       <c r="P7" s="1">
         <f>'[1]Qc, 2020, Summer'!P7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2115366004045665</v>
+        <v>1.0903829403641099</v>
       </c>
       <c r="Q7" s="1">
         <f>'[1]Qc, 2020, Summer'!Q7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0991778619134933</v>
+        <v>0.98926007572214403</v>
       </c>
       <c r="R7" s="1">
         <f>'[1]Qc, 2020, Summer'!R7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.270357333562917</v>
+        <v>1.1433216002066253</v>
       </c>
       <c r="S7" s="1">
         <f>'[1]Qc, 2020, Summer'!S7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2304646717262788</v>
+        <v>1.1074182045536509</v>
       </c>
       <c r="T7" s="1">
         <f>'[1]Qc, 2020, Summer'!T7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0010583281116057</v>
+        <v>0.90095249530044508</v>
       </c>
       <c r="U7" s="1">
         <f>'[1]Qc, 2020, Summer'!U7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.96147674313931297</v>
+        <v>0.86532906882538185</v>
       </c>
       <c r="V7" s="1">
         <f>'[1]Qc, 2020, Summer'!V7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.0810511856839813</v>
+        <v>0.97294606711558318</v>
       </c>
       <c r="W7" s="1">
         <f>'[1]Qc, 2020, Summer'!W7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.90845411324123271</v>
+        <v>0.81760870191710944</v>
       </c>
       <c r="X7" s="1">
         <f>'[1]Qc, 2020, Summer'!X7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.73098176530479564</v>
+        <v>0.65788358877431607</v>
       </c>
       <c r="Y7" s="1">
         <f>'[1]Qc, 2020, Summer'!Y7*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.78146373712082129</v>
+        <v>0.70331736340873918</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -20468,99 +20468,99 @@
       </c>
       <c r="B8" s="1">
         <f>'[1]Qc, 2020, Summer'!B8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.40390212683508536</v>
+        <v>-0.36351191415157685</v>
       </c>
       <c r="C8" s="1">
         <f>'[1]Qc, 2020, Summer'!C8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41720555414676497</v>
+        <v>-0.37548499873208846</v>
       </c>
       <c r="D8" s="1">
         <f>'[1]Qc, 2020, Summer'!D8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44566187203641611</v>
+        <v>-0.40109568483277447</v>
       </c>
       <c r="E8" s="1">
         <f>'[1]Qc, 2020, Summer'!E8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.45391721166992971</v>
+        <v>-0.40852549050293674</v>
       </c>
       <c r="F8" s="1">
         <f>'[1]Qc, 2020, Summer'!F8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.44001464709048638</v>
+        <v>-0.39601318238143779</v>
       </c>
       <c r="G8" s="1">
         <f>'[1]Qc, 2020, Summer'!G8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.46650850992935233</v>
+        <v>-0.41985765893641708</v>
       </c>
       <c r="H8" s="1">
         <f>'[1]Qc, 2020, Summer'!H8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.43523959627609399</v>
+        <v>-0.39171563664848458</v>
       </c>
       <c r="I8" s="1">
         <f>'[1]Qc, 2020, Summer'!I8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25497931988423894</v>
+        <v>-0.22948138789581504</v>
       </c>
       <c r="J8" s="1">
         <f>'[1]Qc, 2020, Summer'!J8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12654467639502803</v>
+        <v>-0.11389020875552525</v>
       </c>
       <c r="K8" s="1">
         <f>'[1]Qc, 2020, Summer'!K8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.7727681561776303E-2</v>
+        <v>-8.7954913405598675E-2</v>
       </c>
       <c r="L8" s="1">
         <f>'[1]Qc, 2020, Summer'!L8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.5931092971022982E-2</v>
+        <v>-3.2337983673920691E-2</v>
       </c>
       <c r="M8" s="1">
         <f>'[1]Qc, 2020, Summer'!M8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-5.9721776377662843E-2</v>
+        <v>-5.3749598739896563E-2</v>
       </c>
       <c r="N8" s="1">
         <f>'[1]Qc, 2020, Summer'!N8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.6318611805657166E-2</v>
+        <v>-5.9686750625091448E-2</v>
       </c>
       <c r="O8" s="1">
         <f>'[1]Qc, 2020, Summer'!O8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.3281694749792528E-2</v>
+        <v>-6.5953525274813268E-2</v>
       </c>
       <c r="P8" s="1">
         <f>'[1]Qc, 2020, Summer'!P8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.12585679986521631</v>
+        <v>-0.11327111987869469</v>
       </c>
       <c r="Q8" s="1">
         <f>'[1]Qc, 2020, Summer'!Q8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16266078869497116</v>
+        <v>-0.14639470982547403</v>
       </c>
       <c r="R8" s="1">
         <f>'[1]Qc, 2020, Summer'!R8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18593307702675324</v>
+        <v>-0.16733976932407796</v>
       </c>
       <c r="S8" s="1">
         <f>'[1]Qc, 2020, Summer'!S8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21254855919358553</v>
+        <v>-0.19129370327422698</v>
       </c>
       <c r="T8" s="1">
         <f>'[1]Qc, 2020, Summer'!T8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19874776229640589</v>
+        <v>-0.17887298606676533</v>
       </c>
       <c r="U8" s="1">
         <f>'[1]Qc, 2020, Summer'!U8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.22866266181087813</v>
+        <v>-0.2057963956297903</v>
       </c>
       <c r="V8" s="1">
         <f>'[1]Qc, 2020, Summer'!V8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18870276320515486</v>
+        <v>-0.16983248688463939</v>
       </c>
       <c r="W8" s="1">
         <f>'[1]Qc, 2020, Summer'!W8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25438898436996066</v>
+        <v>-0.22895008593296459</v>
       </c>
       <c r="X8" s="1">
         <f>'[1]Qc, 2020, Summer'!X8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30429504277202318</v>
+        <v>-0.27386553849482087</v>
       </c>
       <c r="Y8" s="1">
         <f>'[1]Qc, 2020, Summer'!Y8*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.32601613197023066</v>
+        <v>-0.29341451877320768</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -20569,99 +20569,99 @@
       </c>
       <c r="B9" s="1">
         <f>'[1]Qc, 2020, Summer'!B9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7513229226891487</v>
+        <v>-1.5761906304202338</v>
       </c>
       <c r="C9" s="1">
         <f>'[1]Qc, 2020, Summer'!C9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7660035506626981</v>
+        <v>-1.5894031955964285</v>
       </c>
       <c r="D9" s="1">
         <f>'[1]Qc, 2020, Summer'!D9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7819048225669427</v>
+        <v>-1.6037143403102483</v>
       </c>
       <c r="E9" s="1">
         <f>'[1]Qc, 2020, Summer'!E9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7894284594089445</v>
+        <v>-1.6104856134680503</v>
       </c>
       <c r="F9" s="1">
         <f>'[1]Qc, 2020, Summer'!F9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7737592518326926</v>
+        <v>-1.5963833266494234</v>
       </c>
       <c r="G9" s="1">
         <f>'[1]Qc, 2020, Summer'!G9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.739529203493082</v>
+        <v>-1.5655762831437738</v>
       </c>
       <c r="H9" s="1">
         <f>'[1]Qc, 2020, Summer'!H9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5299806900364827</v>
+        <v>-1.3769826210328344</v>
       </c>
       <c r="I9" s="1">
         <f>'[1]Qc, 2020, Summer'!I9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3275644298896652</v>
+        <v>-1.1948079869006987</v>
       </c>
       <c r="J9" s="1">
         <f>'[1]Qc, 2020, Summer'!J9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2971761063706877</v>
+        <v>-1.1674584957336192</v>
       </c>
       <c r="K9" s="1">
         <f>'[1]Qc, 2020, Summer'!K9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2689047082613782</v>
+        <v>-1.1420142374352404</v>
       </c>
       <c r="L9" s="1">
         <f>'[1]Qc, 2020, Summer'!L9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2391145638550962</v>
+        <v>-1.1152031074695867</v>
       </c>
       <c r="M9" s="1">
         <f>'[1]Qc, 2020, Summer'!M9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2338466106976653</v>
+        <v>-1.1104619496278989</v>
       </c>
       <c r="N9" s="1">
         <f>'[1]Qc, 2020, Summer'!N9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.2807098713961189</v>
+        <v>-1.1526388842565072</v>
       </c>
       <c r="O9" s="1">
         <f>'[1]Qc, 2020, Summer'!O9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3271468443420027</v>
+        <v>-1.1944321599078027</v>
       </c>
       <c r="P9" s="1">
         <f>'[1]Qc, 2020, Summer'!P9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4262027859957269</v>
+        <v>-1.2835825073961542</v>
       </c>
       <c r="Q9" s="1">
         <f>'[1]Qc, 2020, Summer'!Q9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4669074821788963</v>
+        <v>-1.3202167339610067</v>
       </c>
       <c r="R9" s="1">
         <f>'[1]Qc, 2020, Summer'!R9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4954413359676528</v>
+        <v>-1.3458972023708877</v>
       </c>
       <c r="S9" s="1">
         <f>'[1]Qc, 2020, Summer'!S9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.4939263725166647</v>
+        <v>-1.3445337352649984</v>
       </c>
       <c r="T9" s="1">
         <f>'[1]Qc, 2020, Summer'!T9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5108584077337659</v>
+        <v>-1.3597725669603893</v>
       </c>
       <c r="U9" s="1">
         <f>'[1]Qc, 2020, Summer'!U9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.5550144489868476</v>
+        <v>-1.3995130040881627</v>
       </c>
       <c r="V9" s="1">
         <f>'[1]Qc, 2020, Summer'!V9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6312926886819483</v>
+        <v>-1.4681634198137536</v>
       </c>
       <c r="W9" s="1">
         <f>'[1]Qc, 2020, Summer'!W9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.6812105394427097</v>
+        <v>-1.5130894854984387</v>
       </c>
       <c r="X9" s="1">
         <f>'[1]Qc, 2020, Summer'!X9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7136907519038531</v>
+        <v>-1.5423216767134678</v>
       </c>
       <c r="Y9" s="1">
         <f>'[1]Qc, 2020, Summer'!Y9*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7380207729175603</v>
+        <v>-1.5642186956258044</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -20670,99 +20670,99 @@
       </c>
       <c r="B10" s="1">
         <f>'[1]Qc, 2020, Summer'!B10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.7075982461661414E-2</v>
+        <v>-1.5368384215495271E-2</v>
       </c>
       <c r="C10" s="1">
         <f>'[1]Qc, 2020, Summer'!C10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-6.3426128307776566E-2</v>
+        <v>-5.7083515476998921E-2</v>
       </c>
       <c r="D10" s="1">
         <f>'[1]Qc, 2020, Summer'!D10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.349698514230181E-2</v>
+        <v>-6.6147286628071636E-2</v>
       </c>
       <c r="E10" s="1">
         <f>'[1]Qc, 2020, Summer'!E10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-8.9331754448228343E-2</v>
+        <v>-8.039857900340551E-2</v>
       </c>
       <c r="F10" s="1">
         <f>'[1]Qc, 2020, Summer'!F10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.0982966720369915E-2</v>
+        <v>-8.1884670048332914E-2</v>
       </c>
       <c r="G10" s="1">
         <f>'[1]Qc, 2020, Summer'!G10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.9943325978490136E-2</v>
+        <v>-8.9948993380641121E-2</v>
       </c>
       <c r="H10" s="1">
         <f>'[1]Qc, 2020, Summer'!H10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.168871205576099</v>
+        <v>-0.15198408501848909</v>
       </c>
       <c r="I10" s="1">
         <f>'[1]Qc, 2020, Summer'!I10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.450328439198392E-2</v>
+        <v>-6.7052955952785528E-2</v>
       </c>
       <c r="J10" s="1">
         <f>'[1]Qc, 2020, Summer'!J10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-7.6117464592910883E-2</v>
+        <v>-6.8505718133619789E-2</v>
       </c>
       <c r="K10" s="1">
         <f>'[1]Qc, 2020, Summer'!K10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.2293742396223726E-2</v>
+        <v>-2.0064368156601356E-2</v>
       </c>
       <c r="L10" s="1">
         <f>'[1]Qc, 2020, Summer'!L10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-9.366778773557136E-3</v>
+        <v>-8.4301008962014232E-3</v>
       </c>
       <c r="M10" s="1">
         <f>'[1]Qc, 2020, Summer'!M10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>2.5397036600579587E-2</v>
+        <v>2.285733294052163E-2</v>
       </c>
       <c r="N10" s="1">
         <f>'[1]Qc, 2020, Summer'!N10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>5.6238762416204374E-2</v>
+        <v>5.0614886174583935E-2</v>
       </c>
       <c r="O10" s="1">
         <f>'[1]Qc, 2020, Summer'!O10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9678470626350562E-2</v>
+        <v>3.5710623563715502E-2</v>
       </c>
       <c r="P10" s="1">
         <f>'[1]Qc, 2020, Summer'!P10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4617534914046005E-2</v>
+        <v>1.3155781422641406E-2</v>
       </c>
       <c r="Q10" s="1">
         <f>'[1]Qc, 2020, Summer'!Q10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5696677913409274E-2</v>
+        <v>5.9127010122068349E-2</v>
       </c>
       <c r="R10" s="1">
         <f>'[1]Qc, 2020, Summer'!R10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8331170854654368E-2</v>
+        <v>4.349805376918893E-2</v>
       </c>
       <c r="S10" s="1">
         <f>'[1]Qc, 2020, Summer'!S10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.9323277150284212E-2</v>
+        <v>3.5390949435255795E-2</v>
       </c>
       <c r="T10" s="1">
         <f>'[1]Qc, 2020, Summer'!T10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.7264799199788187E-2</v>
+        <v>3.3538319279809367E-2</v>
       </c>
       <c r="U10" s="1">
         <f>'[1]Qc, 2020, Summer'!U10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.5956710138565731E-2</v>
+        <v>3.2361039124709161E-2</v>
       </c>
       <c r="V10" s="1">
         <f>'[1]Qc, 2020, Summer'!V10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.7650136261409491E-2</v>
+        <v>6.0885122635268546E-2</v>
       </c>
       <c r="W10" s="1">
         <f>'[1]Qc, 2020, Summer'!W10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.2202177520598751E-2</v>
+        <v>6.4981959768538877E-2</v>
       </c>
       <c r="X10" s="1">
         <f>'[1]Qc, 2020, Summer'!X10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-1.3389163524941983E-2</v>
+        <v>-1.2050247172447785E-2</v>
       </c>
       <c r="Y10" s="1">
         <f>'[1]Qc, 2020, Summer'!Y10*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0326961130129734E-2</v>
+        <v>-1.829426501711676E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -20771,99 +20771,99 @@
       </c>
       <c r="B11" s="1">
         <f>'[1]Qc, 2020, Summer'!B11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25060742422147902</v>
+        <v>-0.2255466817993311</v>
       </c>
       <c r="C11" s="1">
         <f>'[1]Qc, 2020, Summer'!C11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28191566371111565</v>
+        <v>-0.25372409734000412</v>
       </c>
       <c r="D11" s="1">
         <f>'[1]Qc, 2020, Summer'!D11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28897987556746912</v>
+        <v>-0.26008188801072218</v>
       </c>
       <c r="E11" s="1">
         <f>'[1]Qc, 2020, Summer'!E11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.28399805820760443</v>
+        <v>-0.25559825238684403</v>
       </c>
       <c r="F11" s="1">
         <f>'[1]Qc, 2020, Summer'!F11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29041543243564683</v>
+        <v>-0.26137388919208215</v>
       </c>
       <c r="G11" s="1">
         <f>'[1]Qc, 2020, Summer'!G11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.30486015101735797</v>
+        <v>-0.27437413591562215</v>
       </c>
       <c r="H11" s="1">
         <f>'[1]Qc, 2020, Summer'!H11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14324329508261213</v>
+        <v>-0.12891896557435092</v>
       </c>
       <c r="I11" s="1">
         <f>'[1]Qc, 2020, Summer'!I11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.275123567729502E-3</v>
+        <v>8.3476112109565539E-3</v>
       </c>
       <c r="J11" s="1">
         <f>'[1]Qc, 2020, Summer'!J11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10371881781153863</v>
+        <v>9.3346936030384783E-2</v>
       </c>
       <c r="K11" s="1">
         <f>'[1]Qc, 2020, Summer'!K11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12121475839531756</v>
+        <v>0.10909328255578581</v>
       </c>
       <c r="L11" s="1">
         <f>'[1]Qc, 2020, Summer'!L11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>4.8118501908046479E-2</v>
+        <v>4.330665171724183E-2</v>
       </c>
       <c r="M11" s="1">
         <f>'[1]Qc, 2020, Summer'!M11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13821866768612046</v>
+        <v>0.12439680091750842</v>
       </c>
       <c r="N11" s="1">
         <f>'[1]Qc, 2020, Summer'!N11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13075535313485231</v>
+        <v>0.11767981782136708</v>
       </c>
       <c r="O11" s="1">
         <f>'[1]Qc, 2020, Summer'!O11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10802436849456311</v>
+        <v>9.7221931645106799E-2</v>
       </c>
       <c r="P11" s="1">
         <f>'[1]Qc, 2020, Summer'!P11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.5580575235836699E-2</v>
+        <v>5.9022517712253038E-2</v>
       </c>
       <c r="Q11" s="1">
         <f>'[1]Qc, 2020, Summer'!Q11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-4.3893705861500045E-3</v>
+        <v>-3.9504335275350041E-3</v>
       </c>
       <c r="R11" s="1">
         <f>'[1]Qc, 2020, Summer'!R11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.2511615889813765E-2</v>
+        <v>-2.9260454300832385E-2</v>
       </c>
       <c r="S11" s="1">
         <f>'[1]Qc, 2020, Summer'!S11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.8358328905514298E-2</v>
+        <v>-2.5522496014962866E-2</v>
       </c>
       <c r="T11" s="1">
         <f>'[1]Qc, 2020, Summer'!T11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.0246787193693008E-2</v>
+        <v>-1.8222108474323706E-2</v>
       </c>
       <c r="U11" s="1">
         <f>'[1]Qc, 2020, Summer'!U11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5557730956713294E-3</v>
+        <v>7.7001957861041965E-3</v>
       </c>
       <c r="V11" s="1">
         <f>'[1]Qc, 2020, Summer'!V11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>3.1377239098132947E-2</v>
+        <v>2.8239515188319655E-2</v>
       </c>
       <c r="W11" s="1">
         <f>'[1]Qc, 2020, Summer'!W11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-2.7812993496590794E-2</v>
+        <v>-2.5031694146931717E-2</v>
       </c>
       <c r="X11" s="1">
         <f>'[1]Qc, 2020, Summer'!X11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.13451891572990646</v>
+        <v>-0.12106702415691584</v>
       </c>
       <c r="Y11" s="1">
         <f>'[1]Qc, 2020, Summer'!Y11*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20412598209599253</v>
+        <v>-0.1837133838863933</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -20872,99 +20872,99 @@
       </c>
       <c r="B12" s="1">
         <f>'[1]Qc, 2020, Summer'!B12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.31774217675253136</v>
+        <v>-0.28596795907727823</v>
       </c>
       <c r="C12" s="1">
         <f>'[1]Qc, 2020, Summer'!C12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.34055286662136663</v>
+        <v>-0.30649757995923005</v>
       </c>
       <c r="D12" s="1">
         <f>'[1]Qc, 2020, Summer'!D12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35518948997534655</v>
+        <v>-0.31967054097781189</v>
       </c>
       <c r="E12" s="1">
         <f>'[1]Qc, 2020, Summer'!E12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.36103659602340016</v>
+        <v>-0.32493293642106014</v>
       </c>
       <c r="F12" s="1">
         <f>'[1]Qc, 2020, Summer'!F12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35135583273743226</v>
+        <v>-0.31622024946368904</v>
       </c>
       <c r="G12" s="1">
         <f>'[1]Qc, 2020, Summer'!G12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.35428319142065917</v>
+        <v>-0.31885487227859327</v>
       </c>
       <c r="H12" s="1">
         <f>'[1]Qc, 2020, Summer'!H12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.29132020457879665</v>
+        <v>-0.26218818412091699</v>
       </c>
       <c r="I12" s="1">
         <f>'[1]Qc, 2020, Summer'!I12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23890836742788329</v>
+        <v>-0.21501753068509497</v>
       </c>
       <c r="J12" s="1">
         <f>'[1]Qc, 2020, Summer'!J12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.2035605586134924</v>
+        <v>-0.18320450275214314</v>
       </c>
       <c r="K12" s="1">
         <f>'[1]Qc, 2020, Summer'!K12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17180928232294815</v>
+        <v>-0.15462835409065334</v>
       </c>
       <c r="L12" s="1">
         <f>'[1]Qc, 2020, Summer'!L12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17200596542698646</v>
+        <v>-0.15480536888428781</v>
       </c>
       <c r="M12" s="1">
         <f>'[1]Qc, 2020, Summer'!M12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.17848963486047492</v>
+        <v>-0.16064067137442745</v>
       </c>
       <c r="N12" s="1">
         <f>'[1]Qc, 2020, Summer'!N12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20011990257220005</v>
+        <v>-0.18010791231498008</v>
       </c>
       <c r="O12" s="1">
         <f>'[1]Qc, 2020, Summer'!O12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21355052393224397</v>
+        <v>-0.19219547153901956</v>
       </c>
       <c r="P12" s="1">
         <f>'[1]Qc, 2020, Summer'!P12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23413782118666959</v>
+        <v>-0.21072403906800263</v>
       </c>
       <c r="Q12" s="1">
         <f>'[1]Qc, 2020, Summer'!Q12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23553575284001885</v>
+        <v>-0.21198217755601698</v>
       </c>
       <c r="R12" s="1">
         <f>'[1]Qc, 2020, Summer'!R12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.23686055361886271</v>
+        <v>-0.21317449825697643</v>
       </c>
       <c r="S12" s="1">
         <f>'[1]Qc, 2020, Summer'!S12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.19283586671515657</v>
+        <v>-0.1735522800436409</v>
       </c>
       <c r="T12" s="1">
         <f>'[1]Qc, 2020, Summer'!T12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16938155795538271</v>
+        <v>-0.15244340215984445</v>
       </c>
       <c r="U12" s="1">
         <f>'[1]Qc, 2020, Summer'!U12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18312263814901433</v>
+        <v>-0.16481037433411291</v>
       </c>
       <c r="V12" s="1">
         <f>'[1]Qc, 2020, Summer'!V12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.16553041335050592</v>
+        <v>-0.14897737201545533</v>
       </c>
       <c r="W12" s="1">
         <f>'[1]Qc, 2020, Summer'!W12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.1881082051720038</v>
+        <v>-0.16929738465480343</v>
       </c>
       <c r="X12" s="1">
         <f>'[1]Qc, 2020, Summer'!X12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21693860173264062</v>
+        <v>-0.19524474155937657</v>
       </c>
       <c r="Y12" s="1">
         <f>'[1]Qc, 2020, Summer'!Y12*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.24211231768870922</v>
+        <v>-0.21790108591983831</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -20973,99 +20973,99 @@
       </c>
       <c r="B13" s="1">
         <f>'[1]Qc, 2020, Summer'!B13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21413781906701956</v>
+        <v>-0.19272403716031761</v>
       </c>
       <c r="C13" s="1">
         <f>'[1]Qc, 2020, Summer'!C13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.14322042794455139</v>
+        <v>-0.12889838515009627</v>
       </c>
       <c r="D13" s="1">
         <f>'[1]Qc, 2020, Summer'!D13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.25240506000907165</v>
+        <v>-0.22716455400816449</v>
       </c>
       <c r="E13" s="1">
         <f>'[1]Qc, 2020, Summer'!E13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.21785103496848013</v>
+        <v>-0.19606593147163212</v>
       </c>
       <c r="F13" s="1">
         <f>'[1]Qc, 2020, Summer'!F13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.3312589408158666</v>
+        <v>-0.29813304673427993</v>
       </c>
       <c r="G13" s="1">
         <f>'[1]Qc, 2020, Summer'!G13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15609750943365766</v>
+        <v>-0.14048775849029191</v>
       </c>
       <c r="H13" s="1">
         <f>'[1]Qc, 2020, Summer'!H13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.55731492309783492</v>
+        <v>-0.50158343078805145</v>
       </c>
       <c r="I13" s="1">
         <f>'[1]Qc, 2020, Summer'!I13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.5091046788789545</v>
+        <v>-0.45819421099105911</v>
       </c>
       <c r="J13" s="1">
         <f>'[1]Qc, 2020, Summer'!J13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48705464799441162</v>
+        <v>-0.43834918319497052</v>
       </c>
       <c r="K13" s="1">
         <f>'[1]Qc, 2020, Summer'!K13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.57258484962130274</v>
+        <v>-0.51532636465917248</v>
       </c>
       <c r="L13" s="1">
         <f>'[1]Qc, 2020, Summer'!L13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.47129360270660431</v>
+        <v>-0.42416424243594392</v>
       </c>
       <c r="M13" s="1">
         <f>'[1]Qc, 2020, Summer'!M13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.41900190409855154</v>
+        <v>-0.37710171368869638</v>
       </c>
       <c r="N13" s="1">
         <f>'[1]Qc, 2020, Summer'!N13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11938118142301678</v>
+        <v>0.1074430632807151</v>
       </c>
       <c r="O13" s="1">
         <f>'[1]Qc, 2020, Summer'!O13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>6.0344066985650507E-2</v>
+        <v>5.4309660287085462E-2</v>
       </c>
       <c r="P13" s="1">
         <f>'[1]Qc, 2020, Summer'!P13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.48127101660874572</v>
+        <v>-0.43314391494787113</v>
       </c>
       <c r="Q13" s="1">
         <f>'[1]Qc, 2020, Summer'!Q13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.18400457218910551</v>
+        <v>-0.165604114970195</v>
       </c>
       <c r="R13" s="1">
         <f>'[1]Qc, 2020, Summer'!R13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.20804577374148334</v>
+        <v>-0.18724119636733502</v>
       </c>
       <c r="S13" s="1">
         <f>'[1]Qc, 2020, Summer'!S13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-0.15009802354687082</v>
+        <v>-0.13508822119218375</v>
       </c>
       <c r="T13" s="1">
         <f>'[1]Qc, 2020, Summer'!T13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>-3.0190425092709371E-2</v>
+        <v>-2.7171382583438437E-2</v>
       </c>
       <c r="U13" s="1">
         <f>'[1]Qc, 2020, Summer'!U13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24282962741490741</v>
+        <v>0.21854666467341669</v>
       </c>
       <c r="V13" s="1">
         <f>'[1]Qc, 2020, Summer'!V13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.59711093570828933</v>
+        <v>0.53739984213746039</v>
       </c>
       <c r="W13" s="1">
         <f>'[1]Qc, 2020, Summer'!W13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.6782664128336473</v>
+        <v>0.61043977155028262</v>
       </c>
       <c r="X13" s="1">
         <f>'[1]Qc, 2020, Summer'!X13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.65307265857829144</v>
+        <v>0.58776539272046224</v>
       </c>
       <c r="Y13" s="1">
         <f>'[1]Qc, 2020, Summer'!Y13*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74253715690813726</v>
+        <v>0.66828344121732353</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -21074,99 +21074,99 @@
       </c>
       <c r="B14" s="1">
         <f>'[1]Qc, 2020, Summer'!B14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.42132144404839517</v>
+        <v>0.37918929964355563</v>
       </c>
       <c r="C14" s="1">
         <f>'[1]Qc, 2020, Summer'!C14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.38723864050000889</v>
+        <v>0.348514776450008</v>
       </c>
       <c r="D14" s="1">
         <f>'[1]Qc, 2020, Summer'!D14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.29508489953893163</v>
+        <v>0.26557640958503853</v>
       </c>
       <c r="E14" s="1">
         <f>'[1]Qc, 2020, Summer'!E14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.26955212015580615</v>
+        <v>0.24259690814022558</v>
       </c>
       <c r="F14" s="1">
         <f>'[1]Qc, 2020, Summer'!F14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.24270624939538701</v>
+        <v>0.21843562445584833</v>
       </c>
       <c r="G14" s="1">
         <f>'[1]Qc, 2020, Summer'!G14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.28204293242091383</v>
+        <v>0.25383863917882243</v>
       </c>
       <c r="H14" s="1">
         <f>'[1]Qc, 2020, Summer'!H14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.9669108760571764</v>
+        <v>0.87021978845145875</v>
       </c>
       <c r="I14" s="1">
         <f>'[1]Qc, 2020, Summer'!I14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2650566579581508</v>
+        <v>1.1385509921623358</v>
       </c>
       <c r="J14" s="1">
         <f>'[1]Qc, 2020, Summer'!J14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6344491044965244</v>
+        <v>1.4710041940468719</v>
       </c>
       <c r="K14" s="1">
         <f>'[1]Qc, 2020, Summer'!K14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5680838417382517</v>
+        <v>1.4112754575644266</v>
       </c>
       <c r="L14" s="1">
         <f>'[1]Qc, 2020, Summer'!L14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5789616683853744</v>
+        <v>1.4210655015468368</v>
       </c>
       <c r="M14" s="1">
         <f>'[1]Qc, 2020, Summer'!M14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.5563792060764003</v>
+        <v>1.4007412854687604</v>
       </c>
       <c r="N14" s="1">
         <f>'[1]Qc, 2020, Summer'!N14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.6181817758775807</v>
+        <v>1.4563635982898229</v>
       </c>
       <c r="O14" s="1">
         <f>'[1]Qc, 2020, Summer'!O14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.4576802829560158</v>
+        <v>1.3119122546604141</v>
       </c>
       <c r="P14" s="1">
         <f>'[1]Qc, 2020, Summer'!P14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2966963485878735</v>
+        <v>1.1670267137290864</v>
       </c>
       <c r="Q14" s="1">
         <f>'[1]Qc, 2020, Summer'!Q14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2268507928626227</v>
+        <v>1.1041657135763603</v>
       </c>
       <c r="R14" s="1">
         <f>'[1]Qc, 2020, Summer'!R14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2124941332943397</v>
+        <v>1.0912447199649058</v>
       </c>
       <c r="S14" s="1">
         <f>'[1]Qc, 2020, Summer'!S14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.2619704570743011</v>
+        <v>1.1357734113668709</v>
       </c>
       <c r="T14" s="1">
         <f>'[1]Qc, 2020, Summer'!T14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.97198124602550418</v>
+        <v>0.87478312142295378</v>
       </c>
       <c r="U14" s="1">
         <f>'[1]Qc, 2020, Summer'!U14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.94635613118793116</v>
+        <v>0.85172051806913807</v>
       </c>
       <c r="V14" s="1">
         <f>'[1]Qc, 2020, Summer'!V14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>1.030258190925756</v>
+        <v>0.92723237183318041</v>
       </c>
       <c r="W14" s="1">
         <f>'[1]Qc, 2020, Summer'!W14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.74792426556621527</v>
+        <v>0.67313183900959372</v>
       </c>
       <c r="X14" s="1">
         <f>'[1]Qc, 2020, Summer'!X14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.34877703095836932</v>
+        <v>0.31389932786253244</v>
       </c>
       <c r="Y14" s="1">
         <f>'[1]Qc, 2020, Summer'!Y14*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.33935156829776653</v>
+        <v>0.30541641146798987</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -21175,99 +21175,99 @@
       </c>
       <c r="B15" s="1">
         <f>'[1]Qc, 2020, Summer'!B15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13491990155209843</v>
+        <v>0.12142791139688858</v>
       </c>
       <c r="C15" s="1">
         <f>'[1]Qc, 2020, Summer'!C15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13523112773931231</v>
+        <v>0.12170801496538108</v>
       </c>
       <c r="D15" s="1">
         <f>'[1]Qc, 2020, Summer'!D15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13682168589212468</v>
+        <v>0.12313951730291221</v>
       </c>
       <c r="E15" s="1">
         <f>'[1]Qc, 2020, Summer'!E15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1375833611014895</v>
+        <v>0.12382502499134054</v>
       </c>
       <c r="F15" s="1">
         <f>'[1]Qc, 2020, Summer'!F15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.1421516744054116</v>
+        <v>0.12793650696487044</v>
       </c>
       <c r="G15" s="1">
         <f>'[1]Qc, 2020, Summer'!G15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.13576480352097503</v>
+        <v>0.12218832316887754</v>
       </c>
       <c r="H15" s="1">
         <f>'[1]Qc, 2020, Summer'!H15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12666282811417548</v>
+        <v>0.11399654530275795</v>
       </c>
       <c r="I15" s="1">
         <f>'[1]Qc, 2020, Summer'!I15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11610114701318888</v>
+        <v>0.10449103231187</v>
       </c>
       <c r="J15" s="1">
         <f>'[1]Qc, 2020, Summer'!J15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7793736191490968E-2</v>
+        <v>8.8014362572341867E-2</v>
       </c>
       <c r="K15" s="1">
         <f>'[1]Qc, 2020, Summer'!K15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.3458057500237622E-2</v>
+        <v>6.611225175021386E-2</v>
       </c>
       <c r="L15" s="1">
         <f>'[1]Qc, 2020, Summer'!L15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.7670397530894872E-2</v>
+        <v>6.9903357777805389E-2</v>
       </c>
       <c r="M15" s="1">
         <f>'[1]Qc, 2020, Summer'!M15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>8.5754662932197884E-2</v>
+        <v>7.7179196638978098E-2</v>
       </c>
       <c r="N15" s="1">
         <f>'[1]Qc, 2020, Summer'!N15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>7.1317186509575067E-2</v>
+        <v>6.4185467858617562E-2</v>
       </c>
       <c r="O15" s="1">
         <f>'[1]Qc, 2020, Summer'!O15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.4103366688803841E-2</v>
+        <v>8.4693030019923468E-2</v>
       </c>
       <c r="P15" s="1">
         <f>'[1]Qc, 2020, Summer'!P15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10038831227239406</v>
+        <v>9.0349481045154639E-2</v>
       </c>
       <c r="Q15" s="1">
         <f>'[1]Qc, 2020, Summer'!Q15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10108112060470063</v>
+        <v>9.0973008544230571E-2</v>
       </c>
       <c r="R15" s="1">
         <f>'[1]Qc, 2020, Summer'!R15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.7060896887041476E-2</v>
+        <v>8.7354807198337339E-2</v>
       </c>
       <c r="S15" s="1">
         <f>'[1]Qc, 2020, Summer'!S15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.8751625797003556E-2</v>
+        <v>8.8876463217303206E-2</v>
       </c>
       <c r="T15" s="1">
         <f>'[1]Qc, 2020, Summer'!T15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>9.3074021943191143E-2</v>
+        <v>8.3766619748872048E-2</v>
       </c>
       <c r="U15" s="1">
         <f>'[1]Qc, 2020, Summer'!U15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.10616285985026871</v>
+        <v>9.5546573865241832E-2</v>
       </c>
       <c r="V15" s="1">
         <f>'[1]Qc, 2020, Summer'!V15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11100173789493105</v>
+        <v>9.9901564105437934E-2</v>
       </c>
       <c r="W15" s="1">
         <f>'[1]Qc, 2020, Summer'!W15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12741152052975649</v>
+        <v>0.11467036847678085</v>
       </c>
       <c r="X15" s="1">
         <f>'[1]Qc, 2020, Summer'!X15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.11829212826957096</v>
+        <v>0.10646291544261387</v>
       </c>
       <c r="Y15" s="1">
         <f>'[1]Qc, 2020, Summer'!Y15*Main!$C$2*(1+[1]Main!$B$2)^(Main!$B$5-2020)</f>
-        <v>0.12170518031960732</v>
+        <v>0.10953466228764659</v>
       </c>
     </row>
   </sheetData>
